--- a/Southampton_Property_PastYear_Edited.xlsx
+++ b/Southampton_Property_PastYear_Edited.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Southampton_Property_PastYear_E" sheetId="1" r:id="rId1"/>
@@ -5312,52 +5312,52 @@
                 <c:formatCode>"£"#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>141750</c:v>
+                  <c:v>192333.33333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112125</c:v>
+                  <c:v>174333.33333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84000</c:v>
+                  <c:v>145571.42857142858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109375</c:v>
+                  <c:v>123500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72500</c:v>
+                  <c:v>148110.55555555556</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131166.66666666666</c:v>
+                  <c:v>169000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109237.5</c:v>
+                  <c:v>206428.57142857142</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122166.66666666667</c:v>
+                  <c:v>168750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138750</c:v>
+                  <c:v>212500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140333.33333333334</c:v>
+                  <c:v>175181.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>177750</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>183500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140000</c:v>
+                  <c:v>187150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6402,10 +6402,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G780"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6443,7 +6442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -6650,7 +6649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -6972,7 +6971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -7731,7 +7730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -8283,7 +8282,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -8306,7 +8305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -8375,7 +8374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -8536,7 +8535,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -8605,7 +8604,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -8697,7 +8696,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -8720,7 +8719,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -8743,7 +8742,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>211</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -8835,7 +8834,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>215</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>217</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>219</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>221</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>223</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>225</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>227</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>229</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>230</v>
       </c>
@@ -9042,7 +9041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>232</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>234</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>236</v>
       </c>
@@ -9111,7 +9110,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>238</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>240</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>242</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>244</v>
       </c>
@@ -9203,7 +9202,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>246</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>248</v>
       </c>
@@ -9249,7 +9248,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>250</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>254</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>256</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>260</v>
       </c>
@@ -9387,7 +9386,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>262</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>264</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>266</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>267</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -9502,7 +9501,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>271</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>273</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>275</v>
       </c>
@@ -9571,7 +9570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>276</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>297</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>301</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>303</v>
       </c>
@@ -9939,7 +9938,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>305</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>307</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -10100,7 +10099,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -10123,7 +10122,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>321</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -10169,7 +10168,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -10307,7 +10306,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -10606,7 +10605,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -10629,7 +10628,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -10652,7 +10651,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>367</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -10767,7 +10766,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>377</v>
       </c>
@@ -10790,7 +10789,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>383</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>385</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>387</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>389</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>391</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>393</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>395</v>
       </c>
@@ -10997,7 +10996,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>397</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>399</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -11066,7 +11065,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>403</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>405</v>
       </c>
@@ -11112,7 +11111,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>407</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>409</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>411</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -11227,7 +11226,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -11319,7 +11318,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>423</v>
       </c>
@@ -11342,7 +11341,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>425</v>
       </c>
@@ -11365,7 +11364,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>427</v>
       </c>
@@ -11388,7 +11387,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>429</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>431</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>433</v>
       </c>
@@ -11457,7 +11456,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>435</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>437</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>439</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>441</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>445</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>447</v>
       </c>
@@ -11618,7 +11617,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>449</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>451</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>453</v>
       </c>
@@ -11687,7 +11686,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>455</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>457</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>459</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>461</v>
       </c>
@@ -11779,7 +11778,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>463</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>465</v>
       </c>
@@ -11825,7 +11824,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>467</v>
       </c>
@@ -11848,7 +11847,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>469</v>
       </c>
@@ -11871,7 +11870,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>471</v>
       </c>
@@ -11894,7 +11893,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>473</v>
       </c>
@@ -11917,7 +11916,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>475</v>
       </c>
@@ -11940,7 +11939,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>477</v>
       </c>
@@ -11963,7 +11962,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -12032,7 +12031,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -12055,7 +12054,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -12078,7 +12077,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -12285,7 +12284,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -12331,7 +12330,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -12354,7 +12353,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -12377,7 +12376,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -12400,7 +12399,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -12423,7 +12422,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -12446,7 +12445,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -12469,7 +12468,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -12515,7 +12514,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -12561,7 +12560,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -12584,7 +12583,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -12607,7 +12606,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -12630,7 +12629,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -12653,7 +12652,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>539</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>541</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>543</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>545</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>547</v>
       </c>
@@ -12768,7 +12767,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>549</v>
       </c>
@@ -12791,7 +12790,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>551</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>553</v>
       </c>
@@ -12837,7 +12836,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>555</v>
       </c>
@@ -12860,7 +12859,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>559</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>561</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>563</v>
       </c>
@@ -12952,7 +12951,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>565</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>566</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>568</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>570</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>572</v>
       </c>
@@ -13067,7 +13066,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>574</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>576</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>577</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>578</v>
       </c>
@@ -13159,7 +13158,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>579</v>
       </c>
@@ -13182,7 +13181,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>581</v>
       </c>
@@ -13205,7 +13204,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>583</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>585</v>
       </c>
@@ -13251,7 +13250,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>587</v>
       </c>
@@ -13274,7 +13273,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>589</v>
       </c>
@@ -13297,7 +13296,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>591</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>593</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>595</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>597</v>
       </c>
@@ -13389,7 +13388,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>599</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>601</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>603</v>
       </c>
@@ -13458,7 +13457,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>605</v>
       </c>
@@ -13481,7 +13480,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>611</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>613</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>614</v>
       </c>
@@ -13596,7 +13595,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>616</v>
       </c>
@@ -13619,7 +13618,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>618</v>
       </c>
@@ -13642,7 +13641,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>619</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>621</v>
       </c>
@@ -13688,7 +13687,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>623</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>625</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>627</v>
       </c>
@@ -13757,7 +13756,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>629</v>
       </c>
@@ -13780,7 +13779,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>630</v>
       </c>
@@ -13803,7 +13802,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>632</v>
       </c>
@@ -13826,7 +13825,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>633</v>
       </c>
@@ -13849,7 +13848,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>635</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>637</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>639</v>
       </c>
@@ -13918,7 +13917,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>641</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>643</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>645</v>
       </c>
@@ -13987,7 +13986,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>647</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>649</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>651</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>653</v>
       </c>
@@ -14079,7 +14078,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>655</v>
       </c>
@@ -14102,7 +14101,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>658</v>
       </c>
@@ -14125,7 +14124,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>660</v>
       </c>
@@ -14148,7 +14147,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>661</v>
       </c>
@@ -14171,7 +14170,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>664</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>666</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>668</v>
       </c>
@@ -14240,7 +14239,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>670</v>
       </c>
@@ -14263,7 +14262,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>672</v>
       </c>
@@ -14286,7 +14285,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>674</v>
       </c>
@@ -14309,7 +14308,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>676</v>
       </c>
@@ -14332,7 +14331,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>678</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>680</v>
       </c>
@@ -14378,7 +14377,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>682</v>
       </c>
@@ -14401,7 +14400,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>684</v>
       </c>
@@ -14424,7 +14423,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>686</v>
       </c>
@@ -14447,7 +14446,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>688</v>
       </c>
@@ -14470,7 +14469,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>690</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>692</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>694</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>695</v>
       </c>
@@ -14562,7 +14561,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>697</v>
       </c>
@@ -14585,7 +14584,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>699</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>701</v>
       </c>
@@ -14631,7 +14630,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>703</v>
       </c>
@@ -14654,7 +14653,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>705</v>
       </c>
@@ -14677,7 +14676,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>707</v>
       </c>
@@ -14700,7 +14699,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>709</v>
       </c>
@@ -14723,7 +14722,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>711</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>713</v>
       </c>
@@ -14769,7 +14768,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>715</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>717</v>
       </c>
@@ -14815,7 +14814,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>719</v>
       </c>
@@ -14838,7 +14837,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>721</v>
       </c>
@@ -14861,7 +14860,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>723</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>725</v>
       </c>
@@ -14907,7 +14906,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>727</v>
       </c>
@@ -14930,7 +14929,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>729</v>
       </c>
@@ -14953,7 +14952,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>731</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>733</v>
       </c>
@@ -14999,7 +14998,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>735</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>737</v>
       </c>
@@ -15045,7 +15044,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>739</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>740</v>
       </c>
@@ -15091,7 +15090,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>742</v>
       </c>
@@ -15114,7 +15113,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>744</v>
       </c>
@@ -15137,7 +15136,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>746</v>
       </c>
@@ -15160,7 +15159,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>748</v>
       </c>
@@ -15183,7 +15182,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>749</v>
       </c>
@@ -15206,7 +15205,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>751</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>753</v>
       </c>
@@ -15252,7 +15251,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>755</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>757</v>
       </c>
@@ -15298,7 +15297,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>759</v>
       </c>
@@ -15321,7 +15320,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>761</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>763</v>
       </c>
@@ -15367,7 +15366,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>764</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>765</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>767</v>
       </c>
@@ -15436,7 +15435,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>769</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>771</v>
       </c>
@@ -15482,7 +15481,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>773</v>
       </c>
@@ -15505,7 +15504,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>775</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>777</v>
       </c>
@@ -15551,7 +15550,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>779</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>781</v>
       </c>
@@ -15597,7 +15596,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>783</v>
       </c>
@@ -15620,7 +15619,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>784</v>
       </c>
@@ -15643,7 +15642,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>786</v>
       </c>
@@ -15666,7 +15665,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>788</v>
       </c>
@@ -15689,7 +15688,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>791</v>
       </c>
@@ -15712,7 +15711,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>793</v>
       </c>
@@ -15758,7 +15757,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>797</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>801</v>
       </c>
@@ -15850,7 +15849,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>805</v>
       </c>
@@ -15873,7 +15872,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>807</v>
       </c>
@@ -15896,7 +15895,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>809</v>
       </c>
@@ -15919,7 +15918,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>811</v>
       </c>
@@ -15942,7 +15941,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>813</v>
       </c>
@@ -15965,7 +15964,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>815</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>817</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>819</v>
       </c>
@@ -16034,7 +16033,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>821</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>825</v>
       </c>
@@ -16103,7 +16102,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>827</v>
       </c>
@@ -16126,7 +16125,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>829</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>831</v>
       </c>
@@ -16172,7 +16171,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>833</v>
       </c>
@@ -16195,7 +16194,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>835</v>
       </c>
@@ -16241,7 +16240,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>839</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>841</v>
       </c>
@@ -16287,7 +16286,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>843</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>845</v>
       </c>
@@ -16333,7 +16332,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>847</v>
       </c>
@@ -16356,7 +16355,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>849</v>
       </c>
@@ -16379,7 +16378,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>851</v>
       </c>
@@ -16425,7 +16424,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>854</v>
       </c>
@@ -16471,7 +16470,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>858</v>
       </c>
@@ -16494,7 +16493,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>860</v>
       </c>
@@ -16517,7 +16516,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>862</v>
       </c>
@@ -16540,7 +16539,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>864</v>
       </c>
@@ -16586,7 +16585,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>867</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>871</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>873</v>
       </c>
@@ -16701,7 +16700,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>877</v>
       </c>
@@ -16724,7 +16723,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>879</v>
       </c>
@@ -16747,7 +16746,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>881</v>
       </c>
@@ -16770,7 +16769,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>883</v>
       </c>
@@ -16793,7 +16792,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>885</v>
       </c>
@@ -16816,7 +16815,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>887</v>
       </c>
@@ -16839,7 +16838,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>889</v>
       </c>
@@ -16862,7 +16861,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>891</v>
       </c>
@@ -16885,7 +16884,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>893</v>
       </c>
@@ -16908,7 +16907,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>895</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>897</v>
       </c>
@@ -16954,7 +16953,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>899</v>
       </c>
@@ -16977,7 +16976,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>901</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>903</v>
       </c>
@@ -17023,7 +17022,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>905</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>907</v>
       </c>
@@ -17069,7 +17068,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>909</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>913</v>
       </c>
@@ -17138,7 +17137,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>915</v>
       </c>
@@ -17161,7 +17160,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>917</v>
       </c>
@@ -17184,7 +17183,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>919</v>
       </c>
@@ -17207,7 +17206,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>921</v>
       </c>
@@ -17230,7 +17229,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>924</v>
       </c>
@@ -17253,7 +17252,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>927</v>
       </c>
@@ -17276,7 +17275,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>929</v>
       </c>
@@ -17299,7 +17298,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>931</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>933</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>935</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>937</v>
       </c>
@@ -17391,7 +17390,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>939</v>
       </c>
@@ -17414,7 +17413,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>941</v>
       </c>
@@ -17437,7 +17436,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>943</v>
       </c>
@@ -17460,7 +17459,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>945</v>
       </c>
@@ -17483,7 +17482,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>947</v>
       </c>
@@ -17506,7 +17505,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>949</v>
       </c>
@@ -17529,7 +17528,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>951</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>953</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>955</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>957</v>
       </c>
@@ -17621,7 +17620,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>959</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>961</v>
       </c>
@@ -17667,7 +17666,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>963</v>
       </c>
@@ -17690,7 +17689,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>965</v>
       </c>
@@ -17713,7 +17712,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>967</v>
       </c>
@@ -17736,7 +17735,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>969</v>
       </c>
@@ -17759,7 +17758,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>971</v>
       </c>
@@ -17782,7 +17781,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>973</v>
       </c>
@@ -17805,7 +17804,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>975</v>
       </c>
@@ -17828,7 +17827,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>977</v>
       </c>
@@ -17851,7 +17850,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>979</v>
       </c>
@@ -17874,7 +17873,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>981</v>
       </c>
@@ -17897,7 +17896,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>983</v>
       </c>
@@ -17920,7 +17919,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>985</v>
       </c>
@@ -17943,7 +17942,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>987</v>
       </c>
@@ -17966,7 +17965,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>988</v>
       </c>
@@ -17989,7 +17988,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>990</v>
       </c>
@@ -18012,7 +18011,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>992</v>
       </c>
@@ -18035,7 +18034,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>994</v>
       </c>
@@ -18058,7 +18057,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>996</v>
       </c>
@@ -18081,7 +18080,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>998</v>
       </c>
@@ -18104,7 +18103,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1000</v>
       </c>
@@ -18127,7 +18126,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1002</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1004</v>
       </c>
@@ -18173,7 +18172,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1006</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1008</v>
       </c>
@@ -18219,7 +18218,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1010</v>
       </c>
@@ -18242,7 +18241,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1012</v>
       </c>
@@ -18265,7 +18264,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1013</v>
       </c>
@@ -18288,7 +18287,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1015</v>
       </c>
@@ -18311,7 +18310,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1017</v>
       </c>
@@ -18334,7 +18333,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1019</v>
       </c>
@@ -18357,7 +18356,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1021</v>
       </c>
@@ -18380,7 +18379,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1023</v>
       </c>
@@ -18403,7 +18402,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1024</v>
       </c>
@@ -18426,7 +18425,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1026</v>
       </c>
@@ -18449,7 +18448,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1028</v>
       </c>
@@ -18472,7 +18471,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1030</v>
       </c>
@@ -18495,7 +18494,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1032</v>
       </c>
@@ -18518,7 +18517,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1034</v>
       </c>
@@ -18541,7 +18540,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1036</v>
       </c>
@@ -18564,7 +18563,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1038</v>
       </c>
@@ -18587,7 +18586,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1040</v>
       </c>
@@ -18610,7 +18609,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1042</v>
       </c>
@@ -18633,7 +18632,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1044</v>
       </c>
@@ -18656,7 +18655,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1046</v>
       </c>
@@ -18679,7 +18678,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1048</v>
       </c>
@@ -18702,7 +18701,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1049</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1052</v>
       </c>
@@ -18748,7 +18747,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1054</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1056</v>
       </c>
@@ -18794,7 +18793,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1058</v>
       </c>
@@ -18817,7 +18816,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1060</v>
       </c>
@@ -18840,7 +18839,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1062</v>
       </c>
@@ -18863,7 +18862,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1064</v>
       </c>
@@ -18886,7 +18885,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1066</v>
       </c>
@@ -18909,7 +18908,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1068</v>
       </c>
@@ -18932,7 +18931,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1070</v>
       </c>
@@ -18955,7 +18954,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1072</v>
       </c>
@@ -18978,7 +18977,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1074</v>
       </c>
@@ -19001,7 +19000,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1076</v>
       </c>
@@ -19024,7 +19023,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1078</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1080</v>
       </c>
@@ -19070,7 +19069,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1082</v>
       </c>
@@ -19093,7 +19092,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1084</v>
       </c>
@@ -19116,7 +19115,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1086</v>
       </c>
@@ -19139,7 +19138,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1088</v>
       </c>
@@ -19162,7 +19161,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1090</v>
       </c>
@@ -19185,7 +19184,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1092</v>
       </c>
@@ -19208,7 +19207,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1094</v>
       </c>
@@ -19231,7 +19230,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1095</v>
       </c>
@@ -19254,7 +19253,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1097</v>
       </c>
@@ -19277,7 +19276,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1099</v>
       </c>
@@ -19300,7 +19299,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1101</v>
       </c>
@@ -19323,7 +19322,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1103</v>
       </c>
@@ -19346,7 +19345,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1105</v>
       </c>
@@ -19369,7 +19368,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1107</v>
       </c>
@@ -19392,7 +19391,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1109</v>
       </c>
@@ -19415,7 +19414,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1111</v>
       </c>
@@ -19438,7 +19437,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1113</v>
       </c>
@@ -19461,7 +19460,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1115</v>
       </c>
@@ -19484,7 +19483,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1117</v>
       </c>
@@ -19507,7 +19506,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1119</v>
       </c>
@@ -19530,7 +19529,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1121</v>
       </c>
@@ -19553,7 +19552,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1122</v>
       </c>
@@ -19576,7 +19575,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1124</v>
       </c>
@@ -19599,7 +19598,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1126</v>
       </c>
@@ -19622,7 +19621,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1128</v>
       </c>
@@ -19645,7 +19644,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1130</v>
       </c>
@@ -19668,7 +19667,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1132</v>
       </c>
@@ -19691,7 +19690,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1134</v>
       </c>
@@ -19714,7 +19713,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1135</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1137</v>
       </c>
@@ -19760,7 +19759,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1139</v>
       </c>
@@ -19783,7 +19782,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1141</v>
       </c>
@@ -19806,7 +19805,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1143</v>
       </c>
@@ -19829,7 +19828,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1145</v>
       </c>
@@ -19852,7 +19851,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1146</v>
       </c>
@@ -19875,7 +19874,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1148</v>
       </c>
@@ -19898,7 +19897,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1150</v>
       </c>
@@ -19921,7 +19920,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1151</v>
       </c>
@@ -19944,7 +19943,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1154</v>
       </c>
@@ -19967,7 +19966,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1156</v>
       </c>
@@ -19990,7 +19989,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1158</v>
       </c>
@@ -20013,7 +20012,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1160</v>
       </c>
@@ -20036,7 +20035,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1162</v>
       </c>
@@ -20059,7 +20058,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1164</v>
       </c>
@@ -20082,7 +20081,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1166</v>
       </c>
@@ -20105,7 +20104,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1168</v>
       </c>
@@ -20128,7 +20127,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1170</v>
       </c>
@@ -20151,7 +20150,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1172</v>
       </c>
@@ -20174,7 +20173,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1174</v>
       </c>
@@ -20197,7 +20196,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1176</v>
       </c>
@@ -20220,7 +20219,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1178</v>
       </c>
@@ -20243,7 +20242,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1180</v>
       </c>
@@ -20266,7 +20265,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1182</v>
       </c>
@@ -20289,7 +20288,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1184</v>
       </c>
@@ -20312,7 +20311,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1186</v>
       </c>
@@ -20335,7 +20334,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1188</v>
       </c>
@@ -20358,7 +20357,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1190</v>
       </c>
@@ -20381,7 +20380,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1192</v>
       </c>
@@ -20404,7 +20403,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1194</v>
       </c>
@@ -20427,7 +20426,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1196</v>
       </c>
@@ -20450,7 +20449,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1198</v>
       </c>
@@ -20473,7 +20472,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1200</v>
       </c>
@@ -20496,7 +20495,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1202</v>
       </c>
@@ -20519,7 +20518,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1203</v>
       </c>
@@ -20542,7 +20541,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1205</v>
       </c>
@@ -20565,7 +20564,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1206</v>
       </c>
@@ -20588,7 +20587,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1208</v>
       </c>
@@ -20611,7 +20610,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1210</v>
       </c>
@@ -20634,7 +20633,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1212</v>
       </c>
@@ -20657,7 +20656,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1214</v>
       </c>
@@ -20680,7 +20679,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1216</v>
       </c>
@@ -20703,7 +20702,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1217</v>
       </c>
@@ -20726,7 +20725,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1219</v>
       </c>
@@ -20749,7 +20748,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1220</v>
       </c>
@@ -20772,7 +20771,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1222</v>
       </c>
@@ -20795,7 +20794,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1224</v>
       </c>
@@ -20818,7 +20817,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1226</v>
       </c>
@@ -20841,7 +20840,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1228</v>
       </c>
@@ -20864,7 +20863,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1230</v>
       </c>
@@ -20887,7 +20886,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1232</v>
       </c>
@@ -20910,7 +20909,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1234</v>
       </c>
@@ -20933,7 +20932,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1236</v>
       </c>
@@ -20956,7 +20955,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1238</v>
       </c>
@@ -20979,7 +20978,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1240</v>
       </c>
@@ -21002,7 +21001,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1242</v>
       </c>
@@ -21025,7 +21024,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1244</v>
       </c>
@@ -21048,7 +21047,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1246</v>
       </c>
@@ -21071,7 +21070,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1248</v>
       </c>
@@ -21094,7 +21093,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1250</v>
       </c>
@@ -21117,7 +21116,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1252</v>
       </c>
@@ -21140,7 +21139,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1254</v>
       </c>
@@ -21163,7 +21162,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1255</v>
       </c>
@@ -21186,7 +21185,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1257</v>
       </c>
@@ -21209,7 +21208,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1259</v>
       </c>
@@ -21232,7 +21231,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1261</v>
       </c>
@@ -21255,7 +21254,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1263</v>
       </c>
@@ -21278,7 +21277,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1265</v>
       </c>
@@ -21301,7 +21300,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1267</v>
       </c>
@@ -21324,7 +21323,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1269</v>
       </c>
@@ -21347,7 +21346,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1271</v>
       </c>
@@ -21370,7 +21369,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1273</v>
       </c>
@@ -21393,7 +21392,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1275</v>
       </c>
@@ -21416,7 +21415,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1277</v>
       </c>
@@ -21439,7 +21438,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1279</v>
       </c>
@@ -21462,7 +21461,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1281</v>
       </c>
@@ -21485,7 +21484,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1282</v>
       </c>
@@ -21508,7 +21507,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1284</v>
       </c>
@@ -21531,7 +21530,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1286</v>
       </c>
@@ -21554,7 +21553,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1287</v>
       </c>
@@ -21577,7 +21576,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1289</v>
       </c>
@@ -21600,7 +21599,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1291</v>
       </c>
@@ -21623,7 +21622,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1293</v>
       </c>
@@ -21646,7 +21645,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1295</v>
       </c>
@@ -21669,7 +21668,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1297</v>
       </c>
@@ -21692,7 +21691,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1299</v>
       </c>
@@ -21715,7 +21714,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1301</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1303</v>
       </c>
@@ -21761,7 +21760,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1305</v>
       </c>
@@ -21784,7 +21783,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1307</v>
       </c>
@@ -21807,7 +21806,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1309</v>
       </c>
@@ -21830,7 +21829,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1311</v>
       </c>
@@ -21853,7 +21852,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1313</v>
       </c>
@@ -21876,7 +21875,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1314</v>
       </c>
@@ -21899,7 +21898,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1316</v>
       </c>
@@ -21922,7 +21921,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1318</v>
       </c>
@@ -21945,7 +21944,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1320</v>
       </c>
@@ -21968,7 +21967,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1322</v>
       </c>
@@ -21991,7 +21990,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1324</v>
       </c>
@@ -22014,7 +22013,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1326</v>
       </c>
@@ -22037,7 +22036,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1328</v>
       </c>
@@ -22060,7 +22059,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1331</v>
       </c>
@@ -22083,7 +22082,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1333</v>
       </c>
@@ -22106,7 +22105,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1335</v>
       </c>
@@ -22129,7 +22128,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1337</v>
       </c>
@@ -22152,7 +22151,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1339</v>
       </c>
@@ -22175,7 +22174,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1341</v>
       </c>
@@ -22198,7 +22197,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1343</v>
       </c>
@@ -22221,7 +22220,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1345</v>
       </c>
@@ -22244,7 +22243,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1347</v>
       </c>
@@ -22267,7 +22266,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1349</v>
       </c>
@@ -22290,7 +22289,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1351</v>
       </c>
@@ -22313,7 +22312,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1353</v>
       </c>
@@ -22336,7 +22335,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1355</v>
       </c>
@@ -22359,7 +22358,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1357</v>
       </c>
@@ -22382,7 +22381,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1359</v>
       </c>
@@ -22405,7 +22404,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1361</v>
       </c>
@@ -22428,7 +22427,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1363</v>
       </c>
@@ -22451,7 +22450,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1365</v>
       </c>
@@ -22474,7 +22473,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1367</v>
       </c>
@@ -22497,7 +22496,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1369</v>
       </c>
@@ -22520,7 +22519,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1371</v>
       </c>
@@ -22543,7 +22542,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1373</v>
       </c>
@@ -22566,7 +22565,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1375</v>
       </c>
@@ -22589,7 +22588,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1377</v>
       </c>
@@ -22612,7 +22611,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1379</v>
       </c>
@@ -22635,7 +22634,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1381</v>
       </c>
@@ -22658,7 +22657,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1383</v>
       </c>
@@ -22681,7 +22680,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1385</v>
       </c>
@@ -22704,7 +22703,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1387</v>
       </c>
@@ -22727,7 +22726,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1390</v>
       </c>
@@ -22750,7 +22749,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1392</v>
       </c>
@@ -22773,7 +22772,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1394</v>
       </c>
@@ -22796,7 +22795,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1396</v>
       </c>
@@ -22819,7 +22818,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1397</v>
       </c>
@@ -22842,7 +22841,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1399</v>
       </c>
@@ -22865,7 +22864,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1401</v>
       </c>
@@ -22888,7 +22887,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1403</v>
       </c>
@@ -22911,7 +22910,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1405</v>
       </c>
@@ -22934,7 +22933,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1407</v>
       </c>
@@ -22957,7 +22956,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1409</v>
       </c>
@@ -22980,7 +22979,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1410</v>
       </c>
@@ -23003,7 +23002,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1412</v>
       </c>
@@ -23026,7 +23025,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1413</v>
       </c>
@@ -23049,7 +23048,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1415</v>
       </c>
@@ -23072,7 +23071,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1417</v>
       </c>
@@ -23095,7 +23094,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1420</v>
       </c>
@@ -23118,7 +23117,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1422</v>
       </c>
@@ -23141,7 +23140,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1424</v>
       </c>
@@ -23164,7 +23163,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1426</v>
       </c>
@@ -23187,7 +23186,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1428</v>
       </c>
@@ -23210,7 +23209,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1430</v>
       </c>
@@ -23233,7 +23232,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1432</v>
       </c>
@@ -23256,7 +23255,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1434</v>
       </c>
@@ -23279,7 +23278,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1436</v>
       </c>
@@ -23302,7 +23301,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1438</v>
       </c>
@@ -23325,7 +23324,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1440</v>
       </c>
@@ -23348,7 +23347,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1442</v>
       </c>
@@ -23371,7 +23370,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1444</v>
       </c>
@@ -23394,7 +23393,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1446</v>
       </c>
@@ -23417,7 +23416,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1448</v>
       </c>
@@ -23440,7 +23439,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1450</v>
       </c>
@@ -23463,7 +23462,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1452</v>
       </c>
@@ -23486,7 +23485,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1454</v>
       </c>
@@ -23509,7 +23508,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1456</v>
       </c>
@@ -23532,7 +23531,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1458</v>
       </c>
@@ -23555,7 +23554,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1460</v>
       </c>
@@ -23578,7 +23577,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1462</v>
       </c>
@@ -23601,7 +23600,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1463</v>
       </c>
@@ -23624,7 +23623,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1465</v>
       </c>
@@ -23647,7 +23646,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1467</v>
       </c>
@@ -23670,7 +23669,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1468</v>
       </c>
@@ -23693,7 +23692,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1470</v>
       </c>
@@ -23716,7 +23715,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1472</v>
       </c>
@@ -23739,7 +23738,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1474</v>
       </c>
@@ -23762,7 +23761,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1476</v>
       </c>
@@ -23785,7 +23784,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1478</v>
       </c>
@@ -23808,7 +23807,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1480</v>
       </c>
@@ -23831,7 +23830,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1482</v>
       </c>
@@ -23854,7 +23853,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1484</v>
       </c>
@@ -23877,7 +23876,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1486</v>
       </c>
@@ -23900,7 +23899,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1488</v>
       </c>
@@ -23923,7 +23922,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1490</v>
       </c>
@@ -23946,7 +23945,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1491</v>
       </c>
@@ -23969,7 +23968,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1493</v>
       </c>
@@ -23992,7 +23991,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1495</v>
       </c>
@@ -24015,7 +24014,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1497</v>
       </c>
@@ -24038,7 +24037,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1499</v>
       </c>
@@ -24061,7 +24060,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1501</v>
       </c>
@@ -24084,7 +24083,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1503</v>
       </c>
@@ -24107,7 +24106,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1505</v>
       </c>
@@ -24130,7 +24129,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1507</v>
       </c>
@@ -24153,7 +24152,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1509</v>
       </c>
@@ -24176,7 +24175,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1511</v>
       </c>
@@ -24199,7 +24198,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1513</v>
       </c>
@@ -24222,7 +24221,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1515</v>
       </c>
@@ -24245,7 +24244,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1517</v>
       </c>
@@ -24268,7 +24267,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1519</v>
       </c>
@@ -24291,7 +24290,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1521</v>
       </c>
@@ -24314,7 +24313,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1523</v>
       </c>
@@ -24337,7 +24336,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1525</v>
       </c>
@@ -24361,18 +24360,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G780">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Flat"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="SO31"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G780"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24381,8 +24369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24419,14 +24407,14 @@
       </c>
       <c r="D3" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B3), "-")</f>
-        <v>141750</v>
+        <v>192333.33333333334</v>
       </c>
       <c r="E3" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B3)</f>
+        <v>9</v>
+      </c>
+      <c r="G3" s="7">
         <v>2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>12</v>
@@ -24438,11 +24426,11 @@
       </c>
       <c r="D4" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B4), "-")</f>
-        <v>112125</v>
+        <v>174333.33333333334</v>
       </c>
       <c r="E4" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B4)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24451,24 +24439,24 @@
       </c>
       <c r="D5" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B5), "-")</f>
-        <v>84000</v>
+        <v>145571.42857142858</v>
       </c>
       <c r="E5" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B5)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B6), "-")</f>
-        <v>-</v>
+        <v>176000</v>
       </c>
       <c r="E6" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24477,11 +24465,11 @@
       </c>
       <c r="D7" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B7), "-")</f>
-        <v>109375</v>
+        <v>123500</v>
       </c>
       <c r="E7" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24490,11 +24478,11 @@
       </c>
       <c r="D8" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B8), "-")</f>
-        <v>72500</v>
+        <v>148110.55555555556</v>
       </c>
       <c r="E8" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B8)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24516,11 +24504,11 @@
       </c>
       <c r="D10" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B10), "-")</f>
-        <v>131166.66666666666</v>
+        <v>169000</v>
       </c>
       <c r="E10" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24529,11 +24517,11 @@
       </c>
       <c r="D11" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B11), "-")</f>
-        <v>109237.5</v>
+        <v>206428.57142857142</v>
       </c>
       <c r="E11" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B11)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24555,11 +24543,11 @@
       </c>
       <c r="D13" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B13), "-")</f>
-        <v>122166.66666666667</v>
+        <v>168750</v>
       </c>
       <c r="E13" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24568,11 +24556,11 @@
       </c>
       <c r="D14" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B14), "-")</f>
-        <v>138750</v>
+        <v>212500</v>
       </c>
       <c r="E14" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24581,37 +24569,37 @@
       </c>
       <c r="D15" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B15), "-")</f>
-        <v>140333.33333333334</v>
+        <v>175181.25</v>
       </c>
       <c r="E15" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B15)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B16), "-")</f>
-        <v>-</v>
+        <v>177750</v>
       </c>
       <c r="E16" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B17), "-")</f>
-        <v>-</v>
+        <v>183500</v>
       </c>
       <c r="E17" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24620,11 +24608,11 @@
       </c>
       <c r="D18" s="5">
         <f>IFERROR(AVERAGEIFS(Southampton_Property_PastYear_E!$E:$E, Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B18), "-")</f>
-        <v>140000</v>
+        <v>187150</v>
       </c>
       <c r="E18" s="6">
         <f>COUNTIFS(Southampton_Property_PastYear_E!$B:$B, 'House Price Dashboard'!$G$3, Southampton_Property_PastYear_E!$C:$C, 'House Price Dashboard'!$H$3, Southampton_Property_PastYear_E!$F:$F, 'House Price Dashboard'!$B18)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Southampton_Property_PastYear_Edited.xlsx
+++ b/Southampton_Property_PastYear_Edited.xlsx
@@ -6404,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G780"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
